--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6EBE1-FFC4-4784-AEC2-FC785DFFB52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF40374-6DAB-498E-AB7B-F0DB6ADA27B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FE45F75-0CBC-4D78-8844-891CA4419193}"/>
+    <workbookView xWindow="-9756" yWindow="3780" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{5FE45F75-0CBC-4D78-8844-891CA4419193}"/>
   </bookViews>
   <sheets>
     <sheet name="10x10x10" sheetId="1" r:id="rId1"/>
     <sheet name="15x15x15" sheetId="4" r:id="rId2"/>
-    <sheet name="20x20x20" sheetId="5" r:id="rId3"/>
+    <sheet name="20x20x20" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Unity</t>
   </si>
@@ -457,7 +457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3B0B-458D-8960-1A18BFCA8059}"/>
+              <c16:uniqueId val="{00000001-66E4-4739-B3F4-2CDD4AB7BDBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -562,7 +562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10x10x10'!$D$3:$D$26</c:f>
+              <c:f>'10x10x10'!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -644,7 +644,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3B0B-458D-8960-1A18BFCA8059}"/>
+              <c16:uniqueId val="{00000002-66E4-4739-B3F4-2CDD4AB7BDBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,7 +652,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Unreal Cube FPS</c:v>
+            <c:v>Unity Monkey FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -749,81 +749,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10x10x10'!$H$3:$H$26</c:f>
+              <c:f>'10x10x10'!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +831,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3B0B-458D-8960-1A18BFCA8059}"/>
+              <c16:uniqueId val="{00000003-66E4-4739-B3F4-2CDD4AB7BDBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -839,7 +839,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Unreal Sphere FPS</c:v>
+            <c:v>Unreal Cube FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -936,7 +936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10x10x10'!$J$3:$J$26</c:f>
+              <c:f>'10x10x10'!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -944,22 +944,22 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>35</c:v>
@@ -977,40 +977,40 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1018,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3B0B-458D-8960-1A18BFCA8059}"/>
+              <c16:uniqueId val="{00000004-66E4-4739-B3F4-2CDD4AB7BDBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1026,7 +1026,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Unreal Monkey FPS</c:v>
+            <c:v>Unreal Sphere FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1123,81 +1123,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10x10x10'!$L$3:$L$26</c:f>
+              <c:f>'10x10x10'!$F$3:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1205,194 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3B0B-458D-8960-1A18BFCA8059}"/>
+              <c16:uniqueId val="{00000005-66E4-4739-B3F4-2CDD4AB7BDBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Unreal Monkey FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10x10x10'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10x10x10'!$G$3:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-66E4-4739-B3F4-2CDD4AB7BDBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1218,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527090680"/>
-        <c:axId val="527097720"/>
+        <c:axId val="625461520"/>
+        <c:axId val="625461840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527090680"/>
+        <c:axId val="625461520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1507,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527097720"/>
+        <c:crossAx val="625461840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527097720"/>
+        <c:axId val="625461840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1566,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527090680"/>
+        <c:crossAx val="625461520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1501,7 +1688,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FPS comparison</a:t>
+              <a:t>Multiple values by 'Time'</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1545,7 +1732,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Unity Sphere FPS</c:v>
+            <c:v>Unity Cube FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1561,7 +1748,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'15x15x15'!$C$3:$C$26</c:f>
+              <c:f>'15x15x15'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1642,81 +1829,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15x15x15'!$D$3:$D$26</c:f>
+              <c:f>'15x15x15'!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>58</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>69</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,7 +1911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7AC4-4E24-9130-FCD0D61BEA56}"/>
+              <c16:uniqueId val="{00000001-F2FD-4383-90B0-6266887EEEBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1732,7 +1919,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unity Monkey FPS</c:v>
+            <c:v>Unity Sphere FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1748,162 +1935,162 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>'15x15x15'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'15x15x15'!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'15x15x15'!$F$3:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,7 +2098,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7AC4-4E24-9130-FCD0D61BEA56}"/>
+              <c16:uniqueId val="{00000002-F2FD-4383-90B0-6266887EEEBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1919,7 +2106,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Unreal Cube FPS</c:v>
+            <c:v>Unity Monkey FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1935,7 +2122,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'15x15x15'!$C$3:$C$26</c:f>
+              <c:f>'15x15x15'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2016,81 +2203,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15x15x15'!$H$3:$H$26</c:f>
+              <c:f>'15x15x15'!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2285,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7AC4-4E24-9130-FCD0D61BEA56}"/>
+              <c16:uniqueId val="{00000003-F2FD-4383-90B0-6266887EEEBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2106,7 +2293,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Unreal Sphere FPS</c:v>
+            <c:v>Unreal Cube FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2122,7 +2309,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'15x15x15'!$C$3:$C$26</c:f>
+              <c:f>'15x15x15'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2203,7 +2390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15x15x15'!$J$3:$J$26</c:f>
+              <c:f>'15x15x15'!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2214,46 +2401,46 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>18</c:v>
@@ -2285,7 +2472,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7AC4-4E24-9130-FCD0D61BEA56}"/>
+              <c16:uniqueId val="{00000004-F2FD-4383-90B0-6266887EEEBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2293,7 +2480,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Unreal Monkey FPS</c:v>
+            <c:v>Unreal Sphere FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2309,7 +2496,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'15x15x15'!$C$3:$C$26</c:f>
+              <c:f>'15x15x15'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2390,12 +2577,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15x15x15'!$L$3:$L$26</c:f>
+              <c:f>'15x15x15'!$F$3:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -2407,64 +2594,64 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,7 +2659,194 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7AC4-4E24-9130-FCD0D61BEA56}"/>
+              <c16:uniqueId val="{00000005-F2FD-4383-90B0-6266887EEEBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Unreal Monkey FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'15x15x15'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'15x15x15'!$G$3:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F2FD-4383-90B0-6266887EEEBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2485,11 +2859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="516025200"/>
-        <c:axId val="516025840"/>
+        <c:axId val="465559096"/>
+        <c:axId val="465560376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="516025200"/>
+        <c:axId val="465559096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2890,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2587,7 +2961,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516025840"/>
+        <c:crossAx val="465560376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2595,7 +2969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516025840"/>
+        <c:axId val="465560376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +3020,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516025200"/>
+        <c:crossAx val="465559096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2768,7 +3142,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FPS comparison</a:t>
+              <a:t>Multiple values by 'Time'</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2812,7 +3186,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Unity Sphere FPS</c:v>
+            <c:v>Unity Cube FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2828,7 +3202,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20x20x20'!$C$3:$C$26</c:f>
+              <c:f>'20x20x20'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2909,81 +3283,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20x20x20'!$D$3:$D$26</c:f>
+              <c:f>'20x20x20'!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,7 +3365,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2EA1-4FB1-8521-646392ED20BD}"/>
+              <c16:uniqueId val="{00000000-B5DA-45FD-A815-148618850A94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2999,7 +3373,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unity Monkey FPS</c:v>
+            <c:v>Unity Sphere FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3015,162 +3389,162 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>'20x20x20'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'20x20x20'!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'20x20x20'!$F$3:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>71</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,7 +3552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2EA1-4FB1-8521-646392ED20BD}"/>
+              <c16:uniqueId val="{00000001-B5DA-45FD-A815-148618850A94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3186,7 +3560,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Unreal Cube FPS</c:v>
+            <c:v>Unity Monkey FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3202,7 +3576,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20x20x20'!$C$3:$C$26</c:f>
+              <c:f>'20x20x20'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3283,81 +3657,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20x20x20'!$H$3:$H$26</c:f>
+              <c:f>'20x20x20'!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,7 +3739,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2EA1-4FB1-8521-646392ED20BD}"/>
+              <c16:uniqueId val="{00000002-B5DA-45FD-A815-148618850A94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3373,7 +3747,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Unreal Sphere FPS</c:v>
+            <c:v>Unreal Cube FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3389,7 +3763,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20x20x20'!$C$3:$C$26</c:f>
+              <c:f>'20x20x20'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3470,81 +3844,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20x20x20'!$J$3:$J$26</c:f>
+              <c:f>'20x20x20'!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,7 +3926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2EA1-4FB1-8521-646392ED20BD}"/>
+              <c16:uniqueId val="{00000003-B5DA-45FD-A815-148618850A94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3560,7 +3934,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Unreal Monkey FPS</c:v>
+            <c:v>Unreal Sphere FPS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3576,7 +3950,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20x20x20'!$C$3:$C$26</c:f>
+              <c:f>'20x20x20'!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3657,81 +4031,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20x20x20'!$L$3:$L$26</c:f>
+              <c:f>'20x20x20'!$F$3:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3739,7 +4113,194 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2EA1-4FB1-8521-646392ED20BD}"/>
+              <c16:uniqueId val="{00000004-B5DA-45FD-A815-148618850A94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Unreal Monkey FPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'20x20x20'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20x20x20'!$G$3:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B5DA-45FD-A815-148618850A94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3752,11 +4313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="516025200"/>
-        <c:axId val="516025840"/>
+        <c:axId val="465559096"/>
+        <c:axId val="465560376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="516025200"/>
+        <c:axId val="465559096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +4344,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3854,7 +4415,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516025840"/>
+        <c:crossAx val="465560376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3862,7 +4423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516025840"/>
+        <c:axId val="465560376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +4474,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516025200"/>
+        <c:crossAx val="465559096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5672,23 +6233,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4" descr="Chart type: Line. Multiple values by 'Time'&#10;&#10;Description automatically generated">
+        <xdr:cNvPr id="6" name="Chart 5" descr="Chart type: Line. Multiple values by 'Time'&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64B6A12-AFAD-4426-B844-F674250E306E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F3483C-DF3F-4213-BE05-D928327E82E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5713,29 +6274,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347980</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Line. Multiple values by 'Field3'&#10;&#10;Description automatically generated">
+        <xdr:cNvPr id="3" name="Chart 2" descr="Chart type: Line. Multiple values by 'Time'&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B32DAB-FAC4-4B59-9445-E9096997BFEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BE42F2-41B2-4DD0-9164-C66A27388BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5756,23 +6315,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347980</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Line. Multiple values by 'Field3'&#10;&#10;Description automatically generated">
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Line. Multiple values by 'Time'&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F215B5-4C93-48E1-A8D3-795DE0911FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48003762-4F77-452B-956B-DC233F1545DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6092,1979 +6651,1218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FCBF51-95D6-4EF8-B596-69412B579F99}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>71</v>
       </c>
-      <c r="C3" s="3">
-        <v>5</v>
+      <c r="C3" s="1">
+        <v>76</v>
       </c>
       <c r="D3" s="1">
-        <v>76</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>73</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>72</v>
       </c>
-      <c r="C4" s="3">
-        <v>10</v>
+      <c r="C4" s="1">
+        <v>73</v>
       </c>
       <c r="D4" s="1">
         <v>73</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <v>73</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>72</v>
       </c>
-      <c r="C5" s="3">
-        <v>15</v>
+      <c r="C5" s="1">
+        <v>72</v>
       </c>
       <c r="D5" s="1">
         <v>72</v>
       </c>
-      <c r="E5" s="3">
-        <v>15</v>
+      <c r="E5" s="1">
+        <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="3">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="G5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>72</v>
       </c>
-      <c r="C6" s="3">
-        <v>20</v>
+      <c r="C6" s="1">
+        <v>71</v>
       </c>
       <c r="D6" s="1">
         <v>71</v>
       </c>
-      <c r="E6" s="3">
-        <v>20</v>
+      <c r="E6" s="1">
+        <v>35</v>
       </c>
       <c r="F6" s="1">
-        <v>71</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1">
-        <v>35</v>
-      </c>
-      <c r="I6" s="3">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1">
         <v>27</v>
       </c>
-      <c r="K6" s="3">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="G6" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>72</v>
       </c>
-      <c r="C7" s="3">
-        <v>25</v>
+      <c r="C7" s="1">
+        <v>71</v>
       </c>
       <c r="D7" s="1">
         <v>71</v>
       </c>
-      <c r="E7" s="3">
-        <v>25</v>
+      <c r="E7" s="1">
+        <v>33</v>
       </c>
       <c r="F7" s="1">
-        <v>71</v>
-      </c>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1">
         <v>35</v>
       </c>
-      <c r="K7" s="3">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="G7" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>72</v>
       </c>
-      <c r="C8" s="3">
-        <v>30</v>
+      <c r="C8" s="1">
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>71</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>71</v>
-      </c>
-      <c r="G8" s="3">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1">
-        <v>35</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1">
-        <v>35</v>
-      </c>
-      <c r="K8" s="3">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1">
-        <v>30</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>72</v>
       </c>
-      <c r="C9" s="3">
-        <v>35</v>
+      <c r="C9" s="1">
+        <v>71</v>
       </c>
       <c r="D9" s="1">
         <v>71</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1">
         <v>35</v>
       </c>
-      <c r="F9" s="1">
-        <v>71</v>
-      </c>
-      <c r="G9" s="3">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1">
-        <v>36</v>
-      </c>
-      <c r="I9" s="3">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="G9" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>72</v>
       </c>
-      <c r="C10" s="3">
-        <v>40</v>
+      <c r="C10" s="1">
+        <v>71</v>
       </c>
       <c r="D10" s="1">
         <v>71</v>
       </c>
-      <c r="E10" s="3">
-        <v>40</v>
+      <c r="E10" s="1">
+        <v>35</v>
       </c>
       <c r="F10" s="1">
-        <v>71</v>
-      </c>
-      <c r="G10" s="3">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
         <v>35</v>
       </c>
-      <c r="I10" s="3">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1">
-        <v>35</v>
-      </c>
-      <c r="K10" s="3">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="G10" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>72</v>
       </c>
-      <c r="C11" s="3">
-        <v>45</v>
+      <c r="C11" s="1">
+        <v>71</v>
       </c>
       <c r="D11" s="1">
         <v>71</v>
       </c>
-      <c r="E11" s="3">
-        <v>45</v>
+      <c r="E11" s="1">
+        <v>35</v>
       </c>
       <c r="F11" s="1">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1">
         <v>35</v>
       </c>
-      <c r="I11" s="3">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="G11" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>71</v>
       </c>
-      <c r="C12" s="3">
-        <v>50</v>
+      <c r="C12" s="1">
+        <v>71</v>
       </c>
       <c r="D12" s="1">
         <v>71</v>
       </c>
-      <c r="E12" s="3">
-        <v>50</v>
+      <c r="E12" s="1">
+        <v>35</v>
       </c>
       <c r="F12" s="1">
-        <v>71</v>
-      </c>
-      <c r="G12" s="3">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
         <v>35</v>
       </c>
-      <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1">
-        <v>35</v>
-      </c>
-      <c r="K12" s="3">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="G12" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>72</v>
       </c>
-      <c r="C13" s="3">
-        <v>55</v>
+      <c r="C13" s="1">
+        <v>71</v>
       </c>
       <c r="D13" s="1">
         <v>71</v>
       </c>
-      <c r="E13" s="3">
-        <v>55</v>
+      <c r="E13" s="1">
+        <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1">
         <v>36</v>
       </c>
-      <c r="I13" s="3">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1">
-        <v>36</v>
-      </c>
-      <c r="K13" s="3">
-        <v>55</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="G13" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>71</v>
       </c>
-      <c r="C14" s="3">
-        <v>60</v>
+      <c r="C14" s="1">
+        <v>71</v>
       </c>
       <c r="D14" s="1">
         <v>71</v>
       </c>
-      <c r="E14" s="3">
-        <v>60</v>
+      <c r="E14" s="1">
+        <v>35</v>
       </c>
       <c r="F14" s="1">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1">
         <v>35</v>
       </c>
-      <c r="I14" s="3">
-        <v>60</v>
-      </c>
-      <c r="J14" s="1">
-        <v>35</v>
-      </c>
-      <c r="K14" s="3">
-        <v>60</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="G14" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>71</v>
       </c>
-      <c r="C15" s="3">
-        <v>65</v>
+      <c r="C15" s="1">
+        <v>71</v>
       </c>
       <c r="D15" s="1">
         <v>71</v>
       </c>
-      <c r="E15" s="3">
-        <v>65</v>
+      <c r="E15" s="1">
+        <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1">
-        <v>36</v>
-      </c>
-      <c r="I15" s="3">
-        <v>65</v>
-      </c>
-      <c r="J15" s="1">
         <v>35</v>
       </c>
-      <c r="K15" s="3">
-        <v>65</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="G15" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>70</v>
       </c>
       <c r="B16" s="1">
         <v>71</v>
       </c>
-      <c r="C16" s="3">
-        <v>70</v>
+      <c r="C16" s="1">
+        <v>71</v>
       </c>
       <c r="D16" s="1">
         <v>71</v>
       </c>
-      <c r="E16" s="3">
-        <v>70</v>
+      <c r="E16" s="1">
+        <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3">
-        <v>70</v>
-      </c>
-      <c r="H16" s="1">
-        <v>36</v>
-      </c>
-      <c r="I16" s="3">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1">
         <v>35</v>
       </c>
-      <c r="K16" s="3">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="G16" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>71</v>
       </c>
-      <c r="C17" s="3">
-        <v>75</v>
+      <c r="C17" s="1">
+        <v>71</v>
       </c>
       <c r="D17" s="1">
         <v>71</v>
       </c>
-      <c r="E17" s="3">
-        <v>75</v>
+      <c r="E17" s="1">
+        <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>71</v>
-      </c>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-      <c r="H17" s="1">
-        <v>36</v>
-      </c>
-      <c r="I17" s="3">
-        <v>75</v>
-      </c>
-      <c r="J17" s="1">
         <v>35</v>
       </c>
-      <c r="K17" s="3">
-        <v>75</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="G17" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>80</v>
       </c>
       <c r="B18" s="1">
         <v>71</v>
       </c>
-      <c r="C18" s="3">
-        <v>80</v>
+      <c r="C18" s="1">
+        <v>71</v>
       </c>
       <c r="D18" s="1">
         <v>71</v>
       </c>
-      <c r="E18" s="3">
-        <v>80</v>
+      <c r="E18" s="1">
+        <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>71</v>
-      </c>
-      <c r="G18" s="3">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1">
-        <v>36</v>
-      </c>
-      <c r="I18" s="3">
-        <v>80</v>
-      </c>
-      <c r="J18" s="1">
         <v>35</v>
       </c>
-      <c r="K18" s="3">
-        <v>80</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="G18" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>71</v>
       </c>
-      <c r="C19" s="3">
-        <v>85</v>
+      <c r="C19" s="1">
+        <v>71</v>
       </c>
       <c r="D19" s="1">
         <v>71</v>
       </c>
-      <c r="E19" s="3">
-        <v>85</v>
+      <c r="E19" s="1">
+        <v>35</v>
       </c>
       <c r="F19" s="1">
-        <v>71</v>
-      </c>
-      <c r="G19" s="3">
-        <v>85</v>
-      </c>
-      <c r="H19" s="1">
         <v>35</v>
       </c>
-      <c r="I19" s="3">
-        <v>85</v>
-      </c>
-      <c r="J19" s="1">
-        <v>35</v>
-      </c>
-      <c r="K19" s="3">
-        <v>85</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="G19" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>71</v>
       </c>
-      <c r="C20" s="3">
-        <v>90</v>
+      <c r="C20" s="1">
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>71</v>
       </c>
-      <c r="E20" s="3">
-        <v>90</v>
+      <c r="E20" s="1">
+        <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>71</v>
-      </c>
-      <c r="G20" s="3">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1">
-        <v>36</v>
-      </c>
-      <c r="I20" s="3">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1">
         <v>35</v>
       </c>
-      <c r="K20" s="3">
-        <v>90</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="G20" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>95</v>
       </c>
       <c r="B21" s="1">
         <v>71</v>
       </c>
-      <c r="C21" s="3">
-        <v>95</v>
+      <c r="C21" s="1">
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>71</v>
       </c>
-      <c r="E21" s="3">
-        <v>95</v>
+      <c r="E21" s="1">
+        <v>35</v>
       </c>
       <c r="F21" s="1">
-        <v>71</v>
-      </c>
-      <c r="G21" s="3">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1">
         <v>35</v>
       </c>
-      <c r="I21" s="3">
-        <v>95</v>
-      </c>
-      <c r="J21" s="1">
-        <v>35</v>
-      </c>
-      <c r="K21" s="3">
-        <v>95</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="G21" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>100</v>
       </c>
       <c r="B22" s="1">
         <v>71</v>
       </c>
-      <c r="C22" s="3">
-        <v>100</v>
+      <c r="C22" s="1">
+        <v>71</v>
       </c>
       <c r="D22" s="1">
         <v>71</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
+      <c r="E22" s="1">
+        <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>71</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1">
-        <v>36</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1">
         <v>35</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="G22" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>71</v>
       </c>
-      <c r="C23" s="3">
-        <v>105</v>
+      <c r="C23" s="1">
+        <v>71</v>
       </c>
       <c r="D23" s="1">
         <v>71</v>
       </c>
-      <c r="E23" s="3">
-        <v>105</v>
+      <c r="E23" s="1">
+        <v>35</v>
       </c>
       <c r="F23" s="1">
-        <v>71</v>
-      </c>
-      <c r="G23" s="3">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1">
         <v>35</v>
       </c>
-      <c r="I23" s="3">
-        <v>105</v>
-      </c>
-      <c r="J23" s="1">
-        <v>35</v>
-      </c>
-      <c r="K23" s="3">
-        <v>105</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="G23" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>110</v>
       </c>
       <c r="B24" s="1">
         <v>71</v>
       </c>
-      <c r="C24" s="3">
-        <v>110</v>
+      <c r="C24" s="1">
+        <v>71</v>
       </c>
       <c r="D24" s="1">
         <v>71</v>
       </c>
-      <c r="E24" s="3">
-        <v>110</v>
+      <c r="E24" s="1">
+        <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>71</v>
-      </c>
-      <c r="G24" s="3">
-        <v>110</v>
-      </c>
-      <c r="H24" s="1">
-        <v>36</v>
-      </c>
-      <c r="I24" s="3">
-        <v>110</v>
-      </c>
-      <c r="J24" s="1">
         <v>35</v>
       </c>
-      <c r="K24" s="3">
-        <v>110</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="G24" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>115</v>
       </c>
       <c r="B25" s="1">
         <v>71</v>
       </c>
-      <c r="C25" s="3">
-        <v>115</v>
+      <c r="C25" s="1">
+        <v>71</v>
       </c>
       <c r="D25" s="1">
         <v>71</v>
       </c>
-      <c r="E25" s="3">
-        <v>115</v>
+      <c r="E25" s="1">
+        <v>35</v>
       </c>
       <c r="F25" s="1">
-        <v>71</v>
-      </c>
-      <c r="G25" s="3">
-        <v>115</v>
-      </c>
-      <c r="H25" s="1">
         <v>35</v>
       </c>
-      <c r="I25" s="3">
-        <v>115</v>
-      </c>
-      <c r="J25" s="1">
-        <v>35</v>
-      </c>
-      <c r="K25" s="3">
-        <v>115</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="G25" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>120</v>
       </c>
       <c r="B26" s="2">
         <v>71</v>
       </c>
-      <c r="C26" s="4">
-        <v>120</v>
+      <c r="C26" s="2">
+        <v>71</v>
       </c>
       <c r="D26" s="2">
         <v>71</v>
       </c>
-      <c r="E26" s="4">
-        <v>120</v>
+      <c r="E26" s="2">
+        <v>36</v>
       </c>
       <c r="F26" s="2">
-        <v>71</v>
-      </c>
-      <c r="G26" s="4">
-        <v>120</v>
-      </c>
-      <c r="H26" s="2">
-        <v>36</v>
-      </c>
-      <c r="I26" s="4">
-        <v>120</v>
-      </c>
-      <c r="J26" s="2">
         <v>35</v>
       </c>
-      <c r="K26" s="4">
-        <v>120</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="G26" s="2">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3670B9-E681-41D4-90C9-281ED8C52FDC}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>48</v>
       </c>
-      <c r="C3" s="3">
-        <v>5</v>
+      <c r="C3" s="1">
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>49</v>
       </c>
-      <c r="C4" s="3">
-        <v>10</v>
+      <c r="C4" s="1">
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="3">
-        <v>10</v>
+      <c r="E4" s="1">
+        <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8</v>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>43</v>
       </c>
-      <c r="C5" s="3">
-        <v>15</v>
+      <c r="C5" s="1">
+        <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
         <v>8</v>
       </c>
-      <c r="K5" s="3">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8</v>
+      <c r="G5" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>38</v>
       </c>
-      <c r="C6" s="3">
-        <v>20</v>
+      <c r="C6" s="1">
+        <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1">
         <v>8</v>
       </c>
-      <c r="K6" s="3">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8</v>
+      <c r="G6" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>39</v>
       </c>
-      <c r="C7" s="3">
-        <v>25</v>
+      <c r="C7" s="1">
+        <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="E7" s="1">
+        <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>66</v>
-      </c>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1">
         <v>11</v>
       </c>
-      <c r="K7" s="3">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1">
-        <v>8</v>
+      <c r="G7" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>39</v>
       </c>
-      <c r="C8" s="3">
-        <v>30</v>
+      <c r="C8" s="1">
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>71</v>
       </c>
-      <c r="E8" s="3">
-        <v>30</v>
+      <c r="E8" s="1">
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>71</v>
-      </c>
-      <c r="G8" s="3">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1">
-        <v>8</v>
+      <c r="G8" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>62</v>
       </c>
-      <c r="C9" s="3">
-        <v>35</v>
+      <c r="C9" s="1">
+        <v>66</v>
       </c>
       <c r="D9" s="1">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
       </c>
       <c r="F9" s="1">
-        <v>70</v>
-      </c>
-      <c r="G9" s="3">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1">
         <v>18</v>
       </c>
-      <c r="K9" s="3">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8</v>
+      <c r="G9" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>62</v>
       </c>
-      <c r="C10" s="3">
-        <v>40</v>
+      <c r="C10" s="1">
+        <v>45</v>
       </c>
       <c r="D10" s="1">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
       </c>
       <c r="F10" s="1">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1">
         <v>17</v>
       </c>
-      <c r="K10" s="3">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>41</v>
       </c>
-      <c r="C11" s="3">
-        <v>45</v>
+      <c r="C11" s="1">
+        <v>43</v>
       </c>
       <c r="D11" s="1">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18</v>
       </c>
       <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1">
         <v>17</v>
       </c>
-      <c r="K11" s="3">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="G11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>42</v>
       </c>
-      <c r="C12" s="3">
-        <v>50</v>
+      <c r="C12" s="1">
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18</v>
       </c>
       <c r="F12" s="1">
-        <v>71</v>
-      </c>
-      <c r="G12" s="3">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1">
         <v>17</v>
       </c>
-      <c r="K12" s="3">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="G12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>38</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>55</v>
       </c>
       <c r="D13" s="1">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18</v>
       </c>
       <c r="F13" s="1">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1">
         <v>18</v>
       </c>
-      <c r="I13" s="3">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3">
-        <v>55</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="G13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>59</v>
       </c>
-      <c r="C14" s="3">
-        <v>60</v>
+      <c r="C14" s="1">
+        <v>59</v>
       </c>
       <c r="D14" s="1">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18</v>
       </c>
       <c r="F14" s="1">
-        <v>70</v>
-      </c>
-      <c r="G14" s="3">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3">
-        <v>60</v>
-      </c>
-      <c r="J14" s="1">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>60</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="G14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>70</v>
       </c>
-      <c r="C15" s="3">
-        <v>65</v>
+      <c r="C15" s="1">
+        <v>71</v>
       </c>
       <c r="D15" s="1">
         <v>71</v>
       </c>
-      <c r="E15" s="3">
-        <v>65</v>
+      <c r="E15" s="1">
+        <v>17</v>
       </c>
       <c r="F15" s="1">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3">
-        <v>65</v>
-      </c>
-      <c r="J15" s="1">
         <v>18</v>
       </c>
-      <c r="K15" s="3">
-        <v>65</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="G15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>70</v>
       </c>
       <c r="B16" s="1">
         <v>71</v>
       </c>
-      <c r="C16" s="3">
-        <v>70</v>
+      <c r="C16" s="1">
+        <v>58</v>
       </c>
       <c r="D16" s="1">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18</v>
       </c>
       <c r="F16" s="1">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3">
-        <v>70</v>
-      </c>
-      <c r="H16" s="1">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1">
         <v>17</v>
       </c>
-      <c r="K16" s="3">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="G16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>71</v>
       </c>
-      <c r="C17" s="3">
-        <v>75</v>
+      <c r="C17" s="1">
+        <v>50</v>
       </c>
       <c r="D17" s="1">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18</v>
       </c>
       <c r="F17" s="1">
-        <v>35</v>
-      </c>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-      <c r="H17" s="1">
         <v>18</v>
       </c>
-      <c r="I17" s="3">
-        <v>75</v>
-      </c>
-      <c r="J17" s="1">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3">
-        <v>75</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="G17" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>80</v>
       </c>
       <c r="B18" s="1">
         <v>71</v>
       </c>
-      <c r="C18" s="3">
-        <v>80</v>
+      <c r="C18" s="1">
+        <v>69</v>
       </c>
       <c r="D18" s="1">
-        <v>69</v>
-      </c>
-      <c r="E18" s="3">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3">
-        <v>80</v>
-      </c>
-      <c r="J18" s="1">
         <v>17</v>
       </c>
-      <c r="K18" s="3">
-        <v>80</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="G18" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>71</v>
       </c>
-      <c r="C19" s="3">
-        <v>85</v>
+      <c r="C19" s="1">
+        <v>62</v>
       </c>
       <c r="D19" s="1">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18</v>
       </c>
       <c r="F19" s="1">
-        <v>69</v>
-      </c>
-      <c r="G19" s="3">
-        <v>85</v>
-      </c>
-      <c r="H19" s="1">
         <v>18</v>
       </c>
-      <c r="I19" s="3">
-        <v>85</v>
-      </c>
-      <c r="J19" s="1">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3">
-        <v>85</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="G19" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>71</v>
       </c>
-      <c r="C20" s="3">
-        <v>90</v>
+      <c r="C20" s="1">
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>58</v>
       </c>
-      <c r="E20" s="3">
-        <v>90</v>
+      <c r="E20" s="1">
+        <v>18</v>
       </c>
       <c r="F20" s="1">
-        <v>58</v>
-      </c>
-      <c r="G20" s="3">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="3">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1">
-        <v>18</v>
-      </c>
-      <c r="K20" s="3">
-        <v>90</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="G20" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>95</v>
       </c>
       <c r="B21" s="1">
         <v>71</v>
       </c>
-      <c r="C21" s="3">
-        <v>95</v>
+      <c r="C21" s="1">
+        <v>66</v>
       </c>
       <c r="D21" s="1">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18</v>
       </c>
       <c r="F21" s="1">
-        <v>56</v>
-      </c>
-      <c r="G21" s="3">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1">
         <v>18</v>
       </c>
-      <c r="I21" s="3">
-        <v>95</v>
-      </c>
-      <c r="J21" s="1">
-        <v>18</v>
-      </c>
-      <c r="K21" s="3">
-        <v>95</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="G21" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>100</v>
       </c>
       <c r="B22" s="1">
         <v>71</v>
       </c>
-      <c r="C22" s="3">
-        <v>100</v>
+      <c r="C22" s="1">
+        <v>71</v>
       </c>
       <c r="D22" s="1">
-        <v>71</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="1">
+        <v>18</v>
       </c>
       <c r="F22" s="1">
-        <v>67</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1">
         <v>18</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1">
-        <v>18</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="G22" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>69</v>
       </c>
-      <c r="C23" s="3">
-        <v>105</v>
+      <c r="C23" s="1">
+        <v>71</v>
       </c>
       <c r="D23" s="1">
-        <v>71</v>
-      </c>
-      <c r="E23" s="3">
-        <v>105</v>
+        <v>35</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
       </c>
       <c r="F23" s="1">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1">
         <v>18</v>
       </c>
-      <c r="I23" s="3">
-        <v>105</v>
-      </c>
-      <c r="J23" s="1">
-        <v>18</v>
-      </c>
-      <c r="K23" s="3">
-        <v>105</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="G23" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>110</v>
       </c>
       <c r="B24" s="1">
         <v>71</v>
       </c>
-      <c r="C24" s="3">
-        <v>110</v>
+      <c r="C24" s="1">
+        <v>69</v>
       </c>
       <c r="D24" s="1">
-        <v>69</v>
-      </c>
-      <c r="E24" s="3">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
-      </c>
-      <c r="G24" s="3">
-        <v>110</v>
-      </c>
-      <c r="H24" s="1">
         <v>18</v>
       </c>
-      <c r="I24" s="3">
-        <v>110</v>
-      </c>
-      <c r="J24" s="1">
-        <v>18</v>
-      </c>
-      <c r="K24" s="3">
-        <v>110</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="G24" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>115</v>
       </c>
       <c r="B25" s="1">
         <v>71</v>
       </c>
-      <c r="C25" s="3">
-        <v>115</v>
+      <c r="C25" s="1">
+        <v>68</v>
       </c>
       <c r="D25" s="1">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3">
-        <v>115</v>
+        <v>35</v>
+      </c>
+      <c r="E25" s="1">
+        <v>18</v>
       </c>
       <c r="F25" s="1">
-        <v>35</v>
-      </c>
-      <c r="G25" s="3">
-        <v>115</v>
-      </c>
-      <c r="H25" s="1">
         <v>18</v>
       </c>
-      <c r="I25" s="3">
-        <v>115</v>
-      </c>
-      <c r="J25" s="1">
-        <v>18</v>
-      </c>
-      <c r="K25" s="3">
-        <v>115</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="G25" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>120</v>
       </c>
       <c r="B26" s="2">
         <v>71</v>
       </c>
-      <c r="C26" s="4">
-        <v>120</v>
+      <c r="C26" s="2">
+        <v>68</v>
       </c>
       <c r="D26" s="2">
-        <v>68</v>
-      </c>
-      <c r="E26" s="4">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>35</v>
-      </c>
-      <c r="G26" s="4">
-        <v>120</v>
-      </c>
-      <c r="H26" s="2">
         <v>18</v>
       </c>
-      <c r="I26" s="4">
-        <v>120</v>
-      </c>
-      <c r="J26" s="2">
-        <v>18</v>
-      </c>
-      <c r="K26" s="4">
-        <v>120</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="G26" s="2">
         <v>15</v>
       </c>
     </row>
@@ -8075,989 +7873,608 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36349641-DECC-4CFB-9277-43319A8102C0}">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D19DC3-AAE1-4D40-9236-D93B8657CDD4}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>76</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>73</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>72</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>73</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>73</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>72</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>72</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>27</v>
       </c>
       <c r="D6" s="1">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>71</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1">
-        <v>35</v>
-      </c>
-      <c r="I6" s="3">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>72</v>
-      </c>
-      <c r="C7" s="3">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41</v>
       </c>
       <c r="D7" s="1">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>71</v>
-      </c>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1">
-        <v>35</v>
-      </c>
-      <c r="K7" s="3">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>72</v>
-      </c>
-      <c r="C8" s="3">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>71</v>
-      </c>
-      <c r="E8" s="3">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>71</v>
-      </c>
-      <c r="G8" s="3">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1">
-        <v>35</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1">
-        <v>35</v>
-      </c>
-      <c r="K8" s="3">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>35</v>
       </c>
       <c r="B9" s="1">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>71</v>
-      </c>
-      <c r="E9" s="3">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>71</v>
-      </c>
-      <c r="G9" s="3">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1">
-        <v>36</v>
-      </c>
-      <c r="I9" s="3">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>40</v>
       </c>
       <c r="B10" s="1">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>71</v>
-      </c>
-      <c r="G10" s="3">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1">
-        <v>35</v>
-      </c>
-      <c r="K10" s="3">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>72</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29</v>
       </c>
       <c r="D11" s="1">
-        <v>71</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
       </c>
       <c r="F12" s="1">
-        <v>71</v>
-      </c>
-      <c r="G12" s="3">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1">
-        <v>35</v>
-      </c>
-      <c r="K12" s="3">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>55</v>
       </c>
       <c r="B13" s="1">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>71</v>
-      </c>
-      <c r="E13" s="3">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
       </c>
       <c r="F13" s="1">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1">
-        <v>36</v>
-      </c>
-      <c r="I13" s="3">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1">
-        <v>36</v>
-      </c>
-      <c r="K13" s="3">
-        <v>55</v>
-      </c>
-      <c r="L13" s="1">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>60</v>
       </c>
       <c r="B14" s="1">
-        <v>71</v>
-      </c>
-      <c r="C14" s="3">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1">
-        <v>35</v>
-      </c>
-      <c r="I14" s="3">
-        <v>60</v>
-      </c>
-      <c r="J14" s="1">
-        <v>35</v>
-      </c>
-      <c r="K14" s="3">
-        <v>60</v>
-      </c>
-      <c r="L14" s="1">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>65</v>
       </c>
       <c r="B15" s="1">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1">
-        <v>36</v>
-      </c>
-      <c r="I15" s="3">
-        <v>65</v>
-      </c>
-      <c r="J15" s="1">
-        <v>35</v>
-      </c>
-      <c r="K15" s="3">
-        <v>65</v>
-      </c>
-      <c r="L15" s="1">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>70</v>
       </c>
       <c r="B16" s="1">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26</v>
       </c>
       <c r="D16" s="1">
-        <v>71</v>
-      </c>
-      <c r="E16" s="3">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9</v>
       </c>
       <c r="F16" s="1">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3">
-        <v>70</v>
-      </c>
-      <c r="H16" s="1">
-        <v>36</v>
-      </c>
-      <c r="I16" s="3">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1">
-        <v>35</v>
-      </c>
-      <c r="K16" s="3">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>75</v>
       </c>
       <c r="B17" s="1">
-        <v>71</v>
-      </c>
-      <c r="C17" s="3">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>27</v>
       </c>
       <c r="D17" s="1">
-        <v>71</v>
-      </c>
-      <c r="E17" s="3">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>71</v>
-      </c>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-      <c r="H17" s="1">
-        <v>36</v>
-      </c>
-      <c r="I17" s="3">
-        <v>75</v>
-      </c>
-      <c r="J17" s="1">
-        <v>35</v>
-      </c>
-      <c r="K17" s="3">
-        <v>75</v>
-      </c>
-      <c r="L17" s="1">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>80</v>
       </c>
       <c r="B18" s="1">
-        <v>71</v>
-      </c>
-      <c r="C18" s="3">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
       </c>
       <c r="D18" s="1">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>71</v>
-      </c>
-      <c r="G18" s="3">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1">
-        <v>36</v>
-      </c>
-      <c r="I18" s="3">
-        <v>80</v>
-      </c>
-      <c r="J18" s="1">
-        <v>35</v>
-      </c>
-      <c r="K18" s="3">
-        <v>80</v>
-      </c>
-      <c r="L18" s="1">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>85</v>
       </c>
       <c r="B19" s="1">
-        <v>71</v>
-      </c>
-      <c r="C19" s="3">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>71</v>
-      </c>
-      <c r="G19" s="3">
-        <v>85</v>
-      </c>
-      <c r="H19" s="1">
-        <v>35</v>
-      </c>
-      <c r="I19" s="3">
-        <v>85</v>
-      </c>
-      <c r="J19" s="1">
-        <v>35</v>
-      </c>
-      <c r="K19" s="3">
-        <v>85</v>
-      </c>
-      <c r="L19" s="1">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>71</v>
-      </c>
-      <c r="C20" s="3">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>71</v>
-      </c>
-      <c r="G20" s="3">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1">
-        <v>36</v>
-      </c>
-      <c r="I20" s="3">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1">
-        <v>35</v>
-      </c>
-      <c r="K20" s="3">
-        <v>90</v>
-      </c>
-      <c r="L20" s="1">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>95</v>
       </c>
       <c r="B21" s="1">
-        <v>71</v>
-      </c>
-      <c r="C21" s="3">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
       </c>
       <c r="D21" s="1">
-        <v>71</v>
-      </c>
-      <c r="E21" s="3">
-        <v>95</v>
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>71</v>
-      </c>
-      <c r="G21" s="3">
-        <v>95</v>
-      </c>
-      <c r="H21" s="1">
-        <v>35</v>
-      </c>
-      <c r="I21" s="3">
-        <v>95</v>
-      </c>
-      <c r="J21" s="1">
-        <v>35</v>
-      </c>
-      <c r="K21" s="3">
-        <v>95</v>
-      </c>
-      <c r="L21" s="1">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>100</v>
       </c>
       <c r="B22" s="1">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
       </c>
       <c r="D22" s="1">
-        <v>71</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>71</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1">
-        <v>36</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1">
-        <v>35</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="1">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>105</v>
       </c>
       <c r="B23" s="1">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
       </c>
       <c r="D23" s="1">
-        <v>71</v>
-      </c>
-      <c r="E23" s="3">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
       </c>
       <c r="F23" s="1">
-        <v>71</v>
-      </c>
-      <c r="G23" s="3">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1">
-        <v>35</v>
-      </c>
-      <c r="I23" s="3">
-        <v>105</v>
-      </c>
-      <c r="J23" s="1">
-        <v>35</v>
-      </c>
-      <c r="K23" s="3">
-        <v>105</v>
-      </c>
-      <c r="L23" s="1">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>110</v>
       </c>
       <c r="B24" s="1">
-        <v>71</v>
-      </c>
-      <c r="C24" s="3">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>71</v>
-      </c>
-      <c r="E24" s="3">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
       </c>
       <c r="F24" s="1">
-        <v>71</v>
-      </c>
-      <c r="G24" s="3">
-        <v>110</v>
-      </c>
-      <c r="H24" s="1">
-        <v>36</v>
-      </c>
-      <c r="I24" s="3">
-        <v>110</v>
-      </c>
-      <c r="J24" s="1">
-        <v>35</v>
-      </c>
-      <c r="K24" s="3">
-        <v>110</v>
-      </c>
-      <c r="L24" s="1">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>115</v>
       </c>
       <c r="B25" s="1">
-        <v>71</v>
-      </c>
-      <c r="C25" s="3">
-        <v>115</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>71</v>
-      </c>
-      <c r="E25" s="3">
-        <v>115</v>
+        <v>31</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9</v>
       </c>
       <c r="F25" s="1">
-        <v>71</v>
-      </c>
-      <c r="G25" s="3">
-        <v>115</v>
-      </c>
-      <c r="H25" s="1">
-        <v>35</v>
-      </c>
-      <c r="I25" s="3">
-        <v>115</v>
-      </c>
-      <c r="J25" s="1">
-        <v>35</v>
-      </c>
-      <c r="K25" s="3">
-        <v>115</v>
-      </c>
-      <c r="L25" s="1">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>120</v>
       </c>
       <c r="B26" s="2">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>71</v>
-      </c>
-      <c r="E26" s="4">
-        <v>120</v>
+        <v>31</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9</v>
       </c>
       <c r="F26" s="2">
-        <v>71</v>
-      </c>
-      <c r="G26" s="4">
-        <v>120</v>
-      </c>
-      <c r="H26" s="2">
-        <v>36</v>
-      </c>
-      <c r="I26" s="4">
-        <v>120</v>
-      </c>
-      <c r="J26" s="2">
-        <v>35</v>
-      </c>
-      <c r="K26" s="4">
-        <v>120</v>
-      </c>
-      <c r="L26" s="2">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF40374-6DAB-498E-AB7B-F0DB6ADA27B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA71558-94A0-4AA5-94A6-B780130AA281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9756" yWindow="3780" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{5FE45F75-0CBC-4D78-8844-891CA4419193}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5FE45F75-0CBC-4D78-8844-891CA4419193}"/>
   </bookViews>
   <sheets>
     <sheet name="10x10x10" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Multiple values by 'Time'</a:t>
+              <a:t>Results of the 10x10x10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1687,9 +1687,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Multiple values by 'Time'</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Results of the 15x15x15</a:t>
             </a:r>
+            <a:endParaRPr lang="en-NL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3141,9 +3146,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Multiple values by 'Time'</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Results of the 20x20x20</a:t>
             </a:r>
+            <a:endParaRPr lang="en-NL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6654,7 +6664,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G26"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7877,7 +7887,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
